--- a/transformacion/staging/stg_fuente_regalias.xlsx
+++ b/transformacion/staging/stg_fuente_regalias.xlsx
@@ -722,13 +722,13 @@
         <v>4929335426</v>
       </c>
       <c r="G5">
-        <v>4649948567</v>
+        <v>4656907814</v>
       </c>
       <c r="H5">
-        <v>279386859</v>
+        <v>272427612</v>
       </c>
       <c r="I5">
-        <v>0.9433215971616861</v>
+        <v>0.9447333994430429</v>
       </c>
       <c r="J5" t="s">
         <v>28</v>
